--- a/biology/Botanique/Melolobium/Melolobium.xlsx
+++ b/biology/Botanique/Melolobium/Melolobium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Melolobium est un genre de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, originaire d'Afrique australe, qui comprend une trentaine d'espèces acceptées.
-Ce sont des plantes herbacées vivaces ou des arbrisseaux, aux feuilles trifoliées et aux ramification souvent terminées en épines. Ces plantes sont souvent collantes du fait de l'exsudat de petites glandes superficielles[2].
+Ce sont des plantes herbacées vivaces ou des arbrisseaux, aux feuilles trifoliées et aux ramification souvent terminées en épines. Ces plantes sont souvent collantes du fait de l'exsudat de petites glandes superficielles.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (5 novembre 2018)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (5 novembre 2018) :
 Melolobium accedens Burtt Davy
 Melolobium adenodes Eckl. &amp; Zeyh.
 Melolobium aethiopicum (L.) Druce
